--- a/data_book.xlsx
+++ b/data_book.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Внутренний радиус НКТ, м</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Колонна 4 (промежуточная, кондуктор, направление)</t>
+  </si>
+  <si>
+    <t>Наружный радиус цементного кольца за  внешней колонной, м</t>
   </si>
 </sst>
 </file>
@@ -131,11 +134,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -143,9 +143,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -429,7 +433,7 @@
   <dimension ref="A3:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,128 +450,134 @@
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4" t="s">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.1095</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A3:N3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data_book.xlsx
+++ b/data_book.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Внутренний радиус НКТ, м</t>
   </si>
@@ -75,6 +75,54 @@
   </si>
   <si>
     <t>Наружный радиус цементного кольца за  внешней колонной, м</t>
+  </si>
+  <si>
+    <t>Наружнее цементное кольцо</t>
+  </si>
+  <si>
+    <t>a0</t>
+  </si>
+  <si>
+    <t>l1</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>l2</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>l3</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>l4</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>l5</t>
+  </si>
+  <si>
+    <t>l6</t>
+  </si>
+  <si>
+    <t>l7</t>
+  </si>
+  <si>
+    <t>газ</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a_cem</t>
   </si>
 </sst>
 </file>
@@ -107,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -130,11 +178,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -146,10 +229,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -430,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:O6"/>
+  <dimension ref="A3:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,36 +532,35 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="8"/>
     </row>
     <row r="4" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -478,30 +568,30 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -514,70 +604,193 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="N5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="B6" s="2">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="F6" s="2">
         <v>0.1095</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="G6" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.1095</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.1095</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.1095</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>52</v>
+      </c>
+      <c r="E8">
+        <v>54</v>
+      </c>
+      <c r="F8">
+        <v>56</v>
+      </c>
+      <c r="G8">
+        <v>57</v>
+      </c>
+      <c r="H8">
+        <v>58</v>
+      </c>
+      <c r="I8">
+        <v>59</v>
+      </c>
+      <c r="J8">
+        <v>510</v>
+      </c>
+      <c r="K8">
+        <v>511</v>
+      </c>
+      <c r="L8">
+        <v>512</v>
+      </c>
+      <c r="M8">
+        <v>513</v>
+      </c>
+      <c r="N8">
+        <v>514</v>
+      </c>
+      <c r="O8">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="A4:D4"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="A3:O3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data_book.xlsx
+++ b/data_book.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,49 +80,49 @@
     <t>Наружнее цементное кольцо</t>
   </si>
   <si>
-    <t>a0</t>
-  </si>
-  <si>
-    <t>l1</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>l2</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>l3</t>
-  </si>
-  <si>
-    <t>a3</t>
-  </si>
-  <si>
-    <t>l4</t>
-  </si>
-  <si>
-    <t>a5</t>
-  </si>
-  <si>
-    <t>l5</t>
-  </si>
-  <si>
-    <t>l6</t>
-  </si>
-  <si>
-    <t>l7</t>
-  </si>
-  <si>
-    <t>газ</t>
-  </si>
-  <si>
-    <t>a4</t>
-  </si>
-  <si>
-    <t>a_cem</t>
+    <t>Глубина, м</t>
+  </si>
+  <si>
+    <t>от</t>
+  </si>
+  <si>
+    <t>до</t>
+  </si>
+  <si>
+    <t>Количество расчитываемых интервалов:</t>
+  </si>
+  <si>
+    <t>Плотность скелета мерзлой породы, кг/м3</t>
+  </si>
+  <si>
+    <t>Сумарная весовая влажность мерзлой породы, доля единиц (д.е.)</t>
+  </si>
+  <si>
+    <t>Весовая влажность мерзлой породы за счет незамерзшей воды (д.е)</t>
+  </si>
+  <si>
+    <t>Коэффициент теплопроводности пород в талом состоянии, Вт/(м*град)</t>
+  </si>
+  <si>
+    <t>Коэффициент теплопроводности пород в мерзлом состоянии, Вт/(м*град)</t>
+  </si>
+  <si>
+    <t>Температура начала оттаивания мерзлых пород, град. цкльсия / Температура начала фазовых переходов</t>
+  </si>
+  <si>
+    <t>Расчитываемые интервалы:</t>
+  </si>
+  <si>
+    <t>Если нет ТЛТ равно - 0 м.</t>
+  </si>
+  <si>
+    <t>Общая глубина расчитываемого интервала, м:</t>
+  </si>
+  <si>
+    <t>Среднегодовая температура поверхности массива мерзлых пород, град. Цельсия:</t>
+  </si>
+  <si>
+    <t>Температура добываемого флюида, град. Цельсия</t>
   </si>
 </sst>
 </file>
@@ -147,15 +147,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -183,15 +189,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -213,34 +210,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -521,18 +594,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:O9"/>
+  <dimension ref="A3:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
@@ -544,54 +617,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="9" t="s">
+      <c r="M4" s="8"/>
+      <c r="N4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="10"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -685,104 +758,266 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="2">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>0</v>
+      </c>
+      <c r="B22" s="15">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1800</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <f>B22</f>
+        <v>20</v>
+      </c>
+      <c r="B23" s="15">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="C23" s="2">
+        <v>1800</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f>B23</f>
+        <v>30</v>
+      </c>
+      <c r="B24" s="15">
+        <v>40</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1800</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <f>B24</f>
+        <v>40</v>
+      </c>
+      <c r="B25" s="15">
         <v>50</v>
       </c>
-      <c r="B8">
-        <v>51</v>
-      </c>
-      <c r="C8">
-        <v>52</v>
-      </c>
-      <c r="E8">
-        <v>54</v>
-      </c>
-      <c r="F8">
-        <v>56</v>
-      </c>
-      <c r="G8">
-        <v>57</v>
-      </c>
-      <c r="H8">
-        <v>58</v>
-      </c>
-      <c r="I8">
-        <v>59</v>
-      </c>
-      <c r="J8">
-        <v>510</v>
-      </c>
-      <c r="K8">
-        <v>511</v>
-      </c>
-      <c r="L8">
-        <v>512</v>
-      </c>
-      <c r="M8">
-        <v>513</v>
-      </c>
-      <c r="N8">
-        <v>514</v>
-      </c>
-      <c r="O8">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
+      <c r="C25" s="2">
+        <v>1800</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="21">
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="A3:O3"/>

--- a/data_book.xlsx
+++ b/data_book.xlsx
@@ -89,9 +89,6 @@
     <t>до</t>
   </si>
   <si>
-    <t>Количество расчитываемых интервалов:</t>
-  </si>
-  <si>
     <t>Плотность скелета мерзлой породы, кг/м3</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>Температура добываемого флюида, град. Цельсия</t>
+  </si>
+  <si>
+    <t>Количество расчитываемых интервалов, шт:</t>
   </si>
 </sst>
 </file>
@@ -277,14 +277,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -293,27 +311,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -597,14 +597,14 @@
   <dimension ref="A3:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
@@ -617,54 +617,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="7"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8" t="s">
+      <c r="I4" s="25"/>
+      <c r="J4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8" t="s">
+      <c r="K4" s="25"/>
+      <c r="L4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="6" t="s">
+      <c r="M4" s="25"/>
+      <c r="N4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="7"/>
+      <c r="O4" s="18"/>
     </row>
     <row r="5" spans="1:15" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -759,17 +759,17 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -777,18 +777,18 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="25"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="A11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="2">
         <v>-4</v>
       </c>
@@ -798,89 +798,89 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="25"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="A13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17">
+      <c r="A15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="7"/>
+      <c r="A17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="4"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="A19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="E20" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="F20" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="G20" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="H20" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="12"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -889,18 +889,18 @@
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="6">
         <v>20</v>
       </c>
       <c r="C22" s="2">
@@ -927,7 +927,7 @@
         <f>B22</f>
         <v>20</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="6">
         <v>30</v>
       </c>
       <c r="C23" s="2">
@@ -954,7 +954,7 @@
         <f>B23</f>
         <v>30</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="6">
         <v>40</v>
       </c>
       <c r="C24" s="2">
@@ -981,7 +981,7 @@
         <f>B24</f>
         <v>40</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="6">
         <v>50</v>
       </c>
       <c r="C25" s="2">
@@ -1005,11 +1005,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:C21"/>
@@ -1018,14 +1021,11 @@
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
